--- a/data/trans_dic/IP16B98-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B98-Edad-trans_dic.xlsx
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>90,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,22 +719,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,48; 100,0</t>
+          <t>59,93; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,68; 100</t>
+          <t>91,36; 100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,22 +799,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,93; 100,0</t>
+          <t>50,48; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,36; 100</t>
+          <t>92,68; 100</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B98-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B98-Edad-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,27 +606,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62,31%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>84,92%</t>
+          <t>88,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>83,9%</t>
+          <t>70,52%</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,31; 100</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,68; 100,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,26; 100,0</t>
+          <t>45,35; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,84; 100,0</t>
+          <t>44,99; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>75,92; 100,0</t>
+          <t>72,64; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,65; 95,7</t>
+          <t>40,43; 92,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,27 +719,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,93; 100,0</t>
+          <t>64,31; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>45,89; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>68,54; 100,0</t>
+          <t>68,28; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>89,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,48; 100,0</t>
+          <t>27,74; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>76,75; 100</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>79,25; 100</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>82,92; 100</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>68,54; 100,0</t>
+          <t>58,63; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,68; 100</t>
+          <t>90,51; 100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -879,42 +879,130 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>75,22; 100,0</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,44; 100,0</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,62; 100,0</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,2; 100,0</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,25; 98,26</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,49; 98,77</t>
+          <t>87,39; 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>92,24%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>93,41%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>92,8%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>97,45%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>92,48%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>95,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>75,8; 100,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79,96; 100,0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>77,97; 100,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>84,42; 100,0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>82,74; 98,26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>87,63; 98,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/trans_dic/IP16B98-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B98-Edad-trans_dic.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,35; 100,0</t>
+          <t>47,83; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,99; 100,0</t>
+          <t>44,65; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,64; 100,0</t>
+          <t>66,67; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,43; 92,0</t>
+          <t>40,67; 91,8</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,31; 100,0</t>
+          <t>60,55; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,89; 100,0</t>
+          <t>45,45; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>68,28; 100,0</t>
+          <t>68,37; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,74; 100,0</t>
+          <t>30,41; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,63; 100,0</t>
+          <t>59,51; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>75,8; 100,0</t>
+          <t>73,76; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,96; 100,0</t>
+          <t>79,88; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77,97; 100,0</t>
+          <t>75,62; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>84,42; 100,0</t>
+          <t>84,35; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>82,74; 98,26</t>
+          <t>81,64; 98,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,63; 98,8</t>
+          <t>87,88; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B98-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B98-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>88,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>87,21%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>43,91%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>88,49%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>87,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>51,01; 100,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44,17; 100,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>73,58; 100</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>0,0; 100,0</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>47,83; 100,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>44,65; 100,0</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,67; 100,0</t>
+          <t>72,48; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,67; 91,8</t>
+          <t>41,08; 92,04</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>87,4%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>91,29%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>87,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -719,27 +719,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60,55; 100,0</t>
+          <t>36,85; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>84,31; 100</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>56,72; 100,0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>82,92; 100</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>45,45; 100,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>84,31; 100</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>68,37; 100,0</t>
+          <t>68,65; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,17 +761,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>79,78%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -799,27 +799,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,41; 100,0</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>79,25; 100</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31,28; 100,0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>84,31; 100</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>76,75; 100</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>79,25; 100</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,51; 100,0</t>
+          <t>53,12; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,22 +879,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>55,59; 100</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>73,58; 100</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>79,25; 100</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>79,25; 100</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>55,59; 100</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>73,58; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -921,22 +921,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>92,8%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>97,45%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>92,24%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>93,41%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>92,8%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>97,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,76; 100,0</t>
+          <t>74,62; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,88; 100,0</t>
+          <t>88,2; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,62; 100,0</t>
+          <t>75,22; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>84,35; 100,0</t>
+          <t>80,44; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>81,64; 98,28</t>
+          <t>82,25; 98,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,88; 100,0</t>
+          <t>87,49; 98,77</t>
         </is>
       </c>
     </row>
